--- a/automation/Data/Testdata.xlsx
+++ b/automation/Data/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository\automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C09E9F-5510-4E24-921E-BA780187303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27344D-39DE-4021-993F-9978F75B6FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>CityNames</t>
   </si>
@@ -97,12 +97,16 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>U-Mumba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,72 +437,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -601,7 +901,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,14 +930,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B3DE06-D385-41F6-9ED8-270497824A59}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
